--- a/biology/Zoologie/Chironius_quadricarinatus/Chironius_quadricarinatus.xlsx
+++ b/biology/Zoologie/Chironius_quadricarinatus/Chironius_quadricarinatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chironius quadricarinatus  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chironius quadricarinatus  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Brésil, dans les États de Bahia, de Goiás, du Mato Grosso, du Minas Gerais, de Rio de Janeiro et de São Paulo ;
 au Paraguay ;
 en Bolivie.</t>
@@ -544,10 +558,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Chironius quadricarinatus maculoventris[2] a été élevée au rang d'espèce par Hollis en 2006[3].
-Phyllosira flavescens[4] a été placée en synonymie avec Chironius quadricarinatus.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Chironius quadricarinatus maculoventris a été élevée au rang d'espèce par Hollis en 2006.
+Phyllosira flavescens a été placée en synonymie avec Chironius quadricarinatus.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier. Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral).</t>
         </is>
